--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprayor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprayor\Desktop\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34CA15E-6B9C-4F67-B345-C396869DBF7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB061F9-65F7-44F5-B441-B110A631D65B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D9C58BBF-2D2B-4D89-9E23-2B48DA360711}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9C58BBF-2D2B-4D89-9E23-2B48DA360711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprayor\Desktop\Python Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\VPN-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC620F0-CD9B-4C3A-95DB-8A67E9541D1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B536DB-7D1E-4059-B054-403F2A0E900F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9C58BBF-2D2B-4D89-9E23-2B48DA360711}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D9C58BBF-2D2B-4D89-9E23-2B48DA360711}"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform Data" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3795,9 +3797,9 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3829,7 +3831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3861,7 +3863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4021,7 +4023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4053,7 +4055,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4085,7 +4087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4213,7 +4215,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4277,7 +4279,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4373,7 +4375,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4405,7 +4407,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4437,7 +4439,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4533,7 +4535,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4565,7 +4567,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4597,7 +4599,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4693,7 +4695,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4725,7 +4727,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4767,13 +4769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3D5705-56CF-4FC1-919D-897572BFC3FE}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4789,7 +4791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4800,7 +4802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4816,7 +4818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4827,7 +4829,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4838,7 +4840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4863,7 +4865,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4874,7 +4876,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4908,7 +4910,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4925,7 +4927,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4959,7 +4961,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>165</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>174</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>183</v>
       </c>
@@ -4998,7 +5000,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>192</v>
       </c>
@@ -5006,7 +5008,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>201</v>
       </c>
@@ -5027,9 +5029,9 @@
       <selection activeCell="ABZ1" sqref="ABZ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1378" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1378" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -9174,18 +9176,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FD7013-413F-4A6A-B9D3-0C8CEFE2458A}">
   <dimension ref="A1:W421"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>735</v>
       </c>
@@ -9199,7 +9201,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>739</v>
       </c>
@@ -9210,7 +9212,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>742</v>
       </c>
@@ -9218,7 +9220,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>744</v>
       </c>
@@ -9226,7 +9228,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>746</v>
       </c>
@@ -9234,7 +9236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>747</v>
       </c>
@@ -9242,7 +9244,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>749</v>
       </c>
@@ -9253,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>751</v>
       </c>
@@ -9261,37 +9263,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>758</v>
       </c>
@@ -9302,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>760</v>
       </c>
@@ -9310,37 +9312,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>767</v>
       </c>
@@ -9351,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>769</v>
       </c>
@@ -9359,37 +9361,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>776</v>
       </c>
@@ -9400,7 +9402,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>779</v>
       </c>
@@ -9408,7 +9410,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>781</v>
       </c>
@@ -9416,7 +9418,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>783</v>
       </c>
@@ -9424,7 +9426,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>785</v>
       </c>
@@ -9432,7 +9434,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>787</v>
       </c>
@@ -9440,37 +9442,37 @@
         <v>788</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>795</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>798</v>
       </c>
@@ -9489,7 +9491,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>800</v>
       </c>
@@ -9497,7 +9499,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>802</v>
       </c>
@@ -9505,7 +9507,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>804</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>805</v>
       </c>
@@ -9521,7 +9523,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>807</v>
       </c>
@@ -9532,7 +9534,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>810</v>
       </c>
@@ -9540,7 +9542,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>811</v>
       </c>
@@ -9548,7 +9550,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>812</v>
       </c>
@@ -9559,7 +9561,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>815</v>
       </c>
@@ -9567,7 +9569,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>816</v>
       </c>
@@ -9575,7 +9577,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>817</v>
       </c>
@@ -9586,7 +9588,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>819</v>
       </c>
@@ -9594,7 +9596,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>820</v>
       </c>
@@ -9602,7 +9604,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>821</v>
       </c>
@@ -9610,7 +9612,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>822</v>
       </c>
@@ -9618,7 +9620,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>823</v>
       </c>
@@ -9626,7 +9628,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>824</v>
       </c>
@@ -9634,7 +9636,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>825</v>
       </c>
@@ -9642,7 +9644,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>826</v>
       </c>
@@ -9650,7 +9652,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>827</v>
       </c>
@@ -9658,7 +9660,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>828</v>
       </c>
@@ -9666,7 +9668,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>829</v>
       </c>
@@ -9674,7 +9676,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>830</v>
       </c>
@@ -9685,7 +9687,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>833</v>
       </c>
@@ -9693,7 +9695,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>835</v>
       </c>
@@ -9701,7 +9703,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>837</v>
       </c>
@@ -9709,7 +9711,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>839</v>
       </c>
@@ -9717,7 +9719,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>841</v>
       </c>
@@ -9725,7 +9727,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>843</v>
       </c>
@@ -9733,7 +9735,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>845</v>
       </c>
@@ -9741,7 +9743,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>847</v>
       </c>
@@ -9749,7 +9751,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>849</v>
       </c>
@@ -9757,7 +9759,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>851</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>853</v>
       </c>
@@ -9773,7 +9775,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>855</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>856</v>
       </c>
@@ -9789,7 +9791,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>857</v>
       </c>
@@ -9797,7 +9799,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>859</v>
       </c>
@@ -9805,7 +9807,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>861</v>
       </c>
@@ -9813,7 +9815,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>862</v>
       </c>
@@ -9821,7 +9823,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>863</v>
       </c>
@@ -9829,7 +9831,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>864</v>
       </c>
@@ -9837,7 +9839,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>865</v>
       </c>
@@ -9845,7 +9847,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>866</v>
       </c>
@@ -9853,7 +9855,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>867</v>
       </c>
@@ -9861,7 +9863,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>868</v>
       </c>
@@ -9869,7 +9871,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>869</v>
       </c>
@@ -9877,7 +9879,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>870</v>
       </c>
@@ -9885,7 +9887,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>871</v>
       </c>
@@ -9893,7 +9895,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>872</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>873</v>
       </c>
@@ -9909,7 +9911,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>874</v>
       </c>
@@ -9917,7 +9919,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>875</v>
       </c>
@@ -9925,7 +9927,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>876</v>
       </c>
@@ -9933,7 +9935,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>877</v>
       </c>
@@ -9941,7 +9943,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>878</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>879</v>
       </c>
@@ -9957,7 +9959,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>880</v>
       </c>
@@ -9965,7 +9967,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>881</v>
       </c>
@@ -9973,7 +9975,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>882</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>883</v>
       </c>
@@ -9989,7 +9991,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>884</v>
       </c>
@@ -9997,7 +9999,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>885</v>
       </c>
@@ -10005,7 +10007,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>886</v>
       </c>
@@ -10013,7 +10015,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>887</v>
       </c>
@@ -10021,7 +10023,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>888</v>
       </c>
@@ -10029,7 +10031,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>889</v>
       </c>
@@ -10037,7 +10039,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>890</v>
       </c>
@@ -10045,7 +10047,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>891</v>
       </c>
@@ -10053,7 +10055,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>892</v>
       </c>
@@ -10061,7 +10063,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>893</v>
       </c>
@@ -10069,7 +10071,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>894</v>
       </c>
@@ -10077,7 +10079,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>895</v>
       </c>
@@ -10085,7 +10087,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>896</v>
       </c>
@@ -10093,7 +10095,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>897</v>
       </c>
@@ -10101,7 +10103,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>898</v>
       </c>
@@ -10109,7 +10111,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>899</v>
       </c>
@@ -10117,7 +10119,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>900</v>
       </c>
@@ -10125,7 +10127,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>901</v>
       </c>
@@ -10142,7 +10144,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>902</v>
       </c>
@@ -10177,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>906</v>
       </c>
@@ -10212,7 +10214,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>908</v>
       </c>
@@ -10247,7 +10249,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H150">
         <v>2</v>
       </c>
@@ -10276,7 +10278,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>909</v>
       </c>
@@ -10320,7 +10322,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>911</v>
       </c>
@@ -10361,7 +10363,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>912</v>
       </c>
@@ -10402,7 +10404,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>913</v>
       </c>
@@ -10443,7 +10445,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>914</v>
       </c>
@@ -10484,7 +10486,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>915</v>
       </c>
@@ -10525,7 +10527,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>916</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>917</v>
       </c>
@@ -10607,7 +10609,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H159">
         <v>2</v>
       </c>
@@ -10636,7 +10638,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>918</v>
       </c>
@@ -10671,7 +10673,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>919</v>
       </c>
@@ -10706,7 +10708,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>920</v>
       </c>
@@ -10714,7 +10716,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>921</v>
       </c>
@@ -10725,7 +10727,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>922</v>
       </c>
@@ -10736,7 +10738,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>923</v>
       </c>
@@ -10744,7 +10746,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>924</v>
       </c>
@@ -10752,7 +10754,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>925</v>
       </c>
@@ -10760,7 +10762,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>926</v>
       </c>
@@ -10768,7 +10770,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>927</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>928</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>929</v>
       </c>
@@ -10792,7 +10794,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>930</v>
       </c>
@@ -10800,7 +10802,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>931</v>
       </c>
@@ -10808,7 +10810,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>932</v>
       </c>
@@ -10816,7 +10818,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>933</v>
       </c>
@@ -10824,7 +10826,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>934</v>
       </c>
@@ -10832,7 +10834,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>935</v>
       </c>
@@ -10840,7 +10842,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>936</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>937</v>
       </c>
@@ -10856,7 +10858,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>938</v>
       </c>
@@ -10864,7 +10866,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>939</v>
       </c>
@@ -10872,7 +10874,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>940</v>
       </c>
@@ -10880,7 +10882,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>941</v>
       </c>
@@ -10888,7 +10890,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>942</v>
       </c>
@@ -10896,7 +10898,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>943</v>
       </c>
@@ -10904,7 +10906,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>944</v>
       </c>
@@ -10912,7 +10914,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>945</v>
       </c>
@@ -10920,7 +10922,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>946</v>
       </c>
@@ -10928,7 +10930,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>947</v>
       </c>
@@ -10936,7 +10938,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>948</v>
       </c>
@@ -10947,7 +10949,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:23" x14ac:dyDescent="0.3">
       <c r="H194">
         <v>1</v>
       </c>
@@ -10994,7 +10996,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>950</v>
       </c>
@@ -11050,7 +11052,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D196" t="s">
         <v>832</v>
       </c>
@@ -11100,7 +11102,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>951</v>
       </c>
@@ -11153,7 +11155,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>952</v>
       </c>
@@ -11206,7 +11208,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="199" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>953</v>
       </c>
@@ -11214,7 +11216,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="200" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>954</v>
       </c>
@@ -11228,7 +11230,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="201" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>818</v>
       </c>
@@ -11278,7 +11280,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="202" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>955</v>
       </c>
@@ -11331,7 +11333,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="203" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>956</v>
       </c>
@@ -11384,7 +11386,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="204" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>957</v>
       </c>
@@ -11440,7 +11442,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="205" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>958</v>
       </c>
@@ -11496,12 +11498,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="206" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D206" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="207" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>959</v>
       </c>
@@ -11512,7 +11514,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="208" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>960</v>
       </c>
@@ -11565,7 +11567,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="209" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>961</v>
       </c>
@@ -11618,7 +11620,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="210" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>962</v>
       </c>
@@ -11674,7 +11676,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="211" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>818</v>
       </c>
@@ -11724,7 +11726,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="212" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>963</v>
       </c>
@@ -11777,7 +11779,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="213" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>964</v>
       </c>
@@ -11785,7 +11787,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="214" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>965</v>
       </c>
@@ -11793,7 +11795,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="215" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>966</v>
       </c>
@@ -11804,12 +11806,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="216" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D216" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="217" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>967</v>
       </c>
@@ -11817,7 +11819,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="218" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>968</v>
       </c>
@@ -11825,7 +11827,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="219" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>969</v>
       </c>
@@ -11833,7 +11835,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="220" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>970</v>
       </c>
@@ -11844,12 +11846,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="221" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="222" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>971</v>
       </c>
@@ -11857,7 +11859,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="223" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>972</v>
       </c>
@@ -11865,7 +11867,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="224" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>973</v>
       </c>
@@ -11873,7 +11875,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>974</v>
       </c>
@@ -11884,7 +11886,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>818</v>
       </c>
@@ -11892,7 +11894,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>975</v>
       </c>
@@ -11900,7 +11902,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>976</v>
       </c>
@@ -11908,7 +11910,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>977</v>
       </c>
@@ -11916,7 +11918,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>978</v>
       </c>
@@ -11927,12 +11929,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D231" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>979</v>
       </c>
@@ -11940,7 +11942,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>980</v>
       </c>
@@ -11948,7 +11950,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>981</v>
       </c>
@@ -11956,7 +11958,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>982</v>
       </c>
@@ -11967,12 +11969,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D236" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>983</v>
       </c>
@@ -11980,7 +11982,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>984</v>
       </c>
@@ -11988,7 +11990,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>985</v>
       </c>
@@ -11996,7 +11998,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>986</v>
       </c>
@@ -12007,12 +12009,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>987</v>
       </c>
@@ -12020,7 +12022,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>988</v>
       </c>
@@ -12028,7 +12030,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>989</v>
       </c>
@@ -12036,7 +12038,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>990</v>
       </c>
@@ -12047,12 +12049,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D246" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>991</v>
       </c>
@@ -12060,7 +12062,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>992</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>993</v>
       </c>
@@ -12076,7 +12078,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>994</v>
       </c>
@@ -12087,12 +12089,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>995</v>
       </c>
@@ -12100,7 +12102,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>996</v>
       </c>
@@ -12108,7 +12110,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>997</v>
       </c>
@@ -12116,7 +12118,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>998</v>
       </c>
@@ -12127,12 +12129,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>999</v>
       </c>
@@ -12140,7 +12142,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>1000</v>
       </c>
@@ -12148,7 +12150,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>1001</v>
       </c>
@@ -12156,7 +12158,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>1002</v>
       </c>
@@ -12167,12 +12169,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D261" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>1003</v>
       </c>
@@ -12180,7 +12182,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>1004</v>
       </c>
@@ -12188,7 +12190,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>1005</v>
       </c>
@@ -12196,7 +12198,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>1006</v>
       </c>
@@ -12207,12 +12209,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D266" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>1007</v>
       </c>
@@ -12220,7 +12222,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>1008</v>
       </c>
@@ -12228,7 +12230,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>1009</v>
       </c>
@@ -12236,7 +12238,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>1010</v>
       </c>
@@ -12247,12 +12249,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D272" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>1011</v>
       </c>
@@ -12260,7 +12262,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>1012</v>
       </c>
@@ -12268,7 +12270,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>1013</v>
       </c>
@@ -12276,7 +12278,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>1014</v>
       </c>
@@ -12287,12 +12289,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D277" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>1015</v>
       </c>
@@ -12300,7 +12302,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>1016</v>
       </c>
@@ -12308,7 +12310,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>1017</v>
       </c>
@@ -12316,7 +12318,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>1018</v>
       </c>
@@ -12327,12 +12329,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D282" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>1019</v>
       </c>
@@ -12340,7 +12342,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>1020</v>
       </c>
@@ -12348,7 +12350,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>1021</v>
       </c>
@@ -12356,7 +12358,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>1022</v>
       </c>
@@ -12367,12 +12369,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D287" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>1023</v>
       </c>
@@ -12380,7 +12382,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>1024</v>
       </c>
@@ -12388,7 +12390,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>1025</v>
       </c>
@@ -12396,7 +12398,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>1026</v>
       </c>
@@ -12407,12 +12409,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D292" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>1027</v>
       </c>
@@ -12420,7 +12422,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>1028</v>
       </c>
@@ -12428,7 +12430,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>1029</v>
       </c>
@@ -12436,7 +12438,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>1030</v>
       </c>
@@ -12447,12 +12449,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D297" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
         <v>1031</v>
       </c>
@@ -12460,7 +12462,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
         <v>1032</v>
       </c>
@@ -12468,7 +12470,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>1033</v>
       </c>
@@ -12476,7 +12478,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
         <v>1034</v>
       </c>
@@ -12487,12 +12489,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D302" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>1035</v>
       </c>
@@ -12500,7 +12502,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>1036</v>
       </c>
@@ -12508,7 +12510,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>1037</v>
       </c>
@@ -12516,7 +12518,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>1038</v>
       </c>
@@ -12527,12 +12529,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D307" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>1039</v>
       </c>
@@ -12540,7 +12542,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
         <v>1040</v>
       </c>
@@ -12548,7 +12550,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>1041</v>
       </c>
@@ -12556,7 +12558,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>1042</v>
       </c>
@@ -12567,12 +12569,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D312" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>1043</v>
       </c>
@@ -12580,7 +12582,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>1044</v>
       </c>
@@ -12588,7 +12590,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>1045</v>
       </c>
@@ -12596,7 +12598,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>1046</v>
       </c>
@@ -12607,12 +12609,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D317" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>1047</v>
       </c>
@@ -12620,7 +12622,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
         <v>1048</v>
       </c>
@@ -12628,7 +12630,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
         <v>1049</v>
       </c>
@@ -12636,7 +12638,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>1050</v>
       </c>
@@ -12647,12 +12649,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D322" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>1051</v>
       </c>
@@ -12660,7 +12662,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>1052</v>
       </c>
@@ -12668,7 +12670,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>1053</v>
       </c>
@@ -12676,7 +12678,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>1054</v>
       </c>
@@ -12687,12 +12689,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>1055</v>
       </c>
@@ -12700,7 +12702,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>1056</v>
       </c>
@@ -12708,7 +12710,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>1057</v>
       </c>
@@ -12716,7 +12718,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>1058</v>
       </c>
@@ -12727,12 +12729,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D332" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>1059</v>
       </c>
@@ -12740,7 +12742,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>1060</v>
       </c>
@@ -12748,7 +12750,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>1061</v>
       </c>
@@ -12756,7 +12758,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>1062</v>
       </c>
@@ -12767,12 +12769,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D337" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>1063</v>
       </c>
@@ -12780,7 +12782,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>1064</v>
       </c>
@@ -12788,7 +12790,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>1065</v>
       </c>
@@ -12796,7 +12798,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>1066</v>
       </c>
@@ -12807,12 +12809,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D342" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
         <v>1067</v>
       </c>
@@ -12820,7 +12822,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>1068</v>
       </c>
@@ -12828,7 +12830,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
         <v>1069</v>
       </c>
@@ -12836,7 +12838,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>1070</v>
       </c>
@@ -12847,12 +12849,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D348" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>1071</v>
       </c>
@@ -12860,7 +12862,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>1072</v>
       </c>
@@ -12868,7 +12870,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>1073</v>
       </c>
@@ -12876,7 +12878,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>1074</v>
       </c>
@@ -12887,12 +12889,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D353" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>1075</v>
       </c>
@@ -12900,7 +12902,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>1076</v>
       </c>
@@ -12908,7 +12910,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>1077</v>
       </c>
@@ -12916,7 +12918,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
         <v>1078</v>
       </c>
@@ -12927,12 +12929,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D358" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>1079</v>
       </c>
@@ -12940,7 +12942,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
         <v>1080</v>
       </c>
@@ -12948,7 +12950,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>1081</v>
       </c>
@@ -12956,7 +12958,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
         <v>1082</v>
       </c>
@@ -12967,12 +12969,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D363" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>1083</v>
       </c>
@@ -12980,7 +12982,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
         <v>1084</v>
       </c>
@@ -12988,7 +12990,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>1085</v>
       </c>
@@ -12996,7 +12998,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
         <v>1086</v>
       </c>
@@ -13007,12 +13009,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D368" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>1087</v>
       </c>
@@ -13020,7 +13022,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
         <v>1088</v>
       </c>
@@ -13028,7 +13030,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
         <v>1089</v>
       </c>
@@ -13036,7 +13038,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>1090</v>
       </c>
@@ -13047,12 +13049,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D373" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
         <v>1091</v>
       </c>
@@ -13060,7 +13062,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
         <v>1092</v>
       </c>
@@ -13068,7 +13070,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
         <v>1093</v>
       </c>
@@ -13076,7 +13078,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
         <v>1094</v>
       </c>
@@ -13087,12 +13089,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D378" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
         <v>1095</v>
       </c>
@@ -13100,7 +13102,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
         <v>1096</v>
       </c>
@@ -13108,7 +13110,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>1097</v>
       </c>
@@ -13116,7 +13118,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>1098</v>
       </c>
@@ -13127,12 +13129,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D383" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>1099</v>
       </c>
@@ -13140,7 +13142,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
         <v>1100</v>
       </c>
@@ -13148,7 +13150,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
         <v>1101</v>
       </c>
@@ -13156,7 +13158,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
         <v>1102</v>
       </c>
@@ -13167,12 +13169,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D388" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
         <v>1103</v>
       </c>
@@ -13180,7 +13182,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
         <v>1104</v>
       </c>
@@ -13188,7 +13190,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
         <v>1105</v>
       </c>
@@ -13196,7 +13198,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
         <v>1106</v>
       </c>
@@ -13207,12 +13209,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D393" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
         <v>1107</v>
       </c>
@@ -13220,7 +13222,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
         <v>1108</v>
       </c>
@@ -13228,7 +13230,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
         <v>1109</v>
       </c>
@@ -13236,7 +13238,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
         <v>1110</v>
       </c>
@@ -13247,12 +13249,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D398" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
         <v>1111</v>
       </c>
@@ -13260,7 +13262,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
         <v>1112</v>
       </c>
@@ -13268,7 +13270,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
         <v>1113</v>
       </c>
@@ -13276,7 +13278,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
         <v>1114</v>
       </c>
@@ -13287,12 +13289,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D403" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
         <v>1115</v>
       </c>
@@ -13300,7 +13302,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
         <v>1116</v>
       </c>
@@ -13308,7 +13310,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
         <v>1117</v>
       </c>
@@ -13316,7 +13318,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B407" t="s">
         <v>1118</v>
       </c>
@@ -13327,12 +13329,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D408" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B409" t="s">
         <v>1119</v>
       </c>
@@ -13340,7 +13342,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
         <v>1120</v>
       </c>
@@ -13348,7 +13350,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
         <v>1121</v>
       </c>
@@ -13356,7 +13358,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>1122</v>
       </c>
@@ -13367,12 +13369,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D413" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
         <v>1123</v>
       </c>
@@ -13380,7 +13382,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>1124</v>
       </c>
@@ -13388,7 +13390,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
         <v>1125</v>
       </c>
@@ -13396,7 +13398,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
         <v>1126</v>
       </c>
@@ -13407,12 +13409,12 @@
         <v>818</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D418" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
         <v>1127</v>
       </c>
@@ -13420,7 +13422,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
         <v>1128</v>
       </c>
@@ -13428,7 +13430,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
         <v>1129</v>
       </c>
@@ -13449,16 +13451,16 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>336</v>
       </c>
@@ -13479,7 +13481,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>402</v>
       </c>
@@ -13500,7 +13502,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>363</v>
       </c>
@@ -13521,7 +13523,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>354</v>
       </c>
@@ -13542,7 +13544,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>388</v>
       </c>
@@ -13563,7 +13565,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>332</v>
       </c>
@@ -13584,7 +13586,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>381</v>
       </c>
@@ -13605,7 +13607,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>734</v>
@@ -13624,7 +13626,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>372</v>
       </c>
@@ -13645,7 +13647,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>359</v>
       </c>
@@ -13666,7 +13668,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>331</v>
       </c>
@@ -13687,7 +13689,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>304</v>
       </c>
@@ -13708,7 +13710,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>324</v>
       </c>
@@ -13729,7 +13731,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>325</v>
       </c>
@@ -13750,7 +13752,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>335</v>
       </c>
@@ -13771,7 +13773,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>303</v>
       </c>
@@ -13792,7 +13794,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>319</v>
       </c>
@@ -13813,7 +13815,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>339</v>
       </c>
@@ -13834,7 +13836,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>367</v>
       </c>
@@ -13855,7 +13857,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>394</v>
       </c>
@@ -13876,7 +13878,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>399</v>
       </c>
@@ -13897,7 +13899,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>397</v>
       </c>
@@ -13918,7 +13920,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>387</v>
       </c>
@@ -13939,7 +13941,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>351</v>
       </c>
@@ -13960,7 +13962,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>384</v>
       </c>
@@ -13981,7 +13983,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>404</v>
       </c>
@@ -14002,7 +14004,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>403</v>
       </c>
@@ -14023,7 +14025,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>308</v>
       </c>
@@ -14044,7 +14046,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -14065,7 +14067,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>379</v>
       </c>
@@ -14086,7 +14088,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>341</v>
       </c>
@@ -14107,7 +14109,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>371</v>
       </c>
@@ -14128,7 +14130,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>733</v>
       </c>
@@ -14146,7 +14148,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>396</v>
       </c>
@@ -14167,7 +14169,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>383</v>
       </c>
@@ -14188,7 +14190,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>398</v>
       </c>
@@ -14209,7 +14211,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>326</v>
       </c>
@@ -14230,7 +14232,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>328</v>
       </c>
@@ -14251,7 +14253,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>375</v>
       </c>
@@ -14272,7 +14274,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>393</v>
       </c>
@@ -14293,7 +14295,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>373</v>
       </c>
@@ -14314,7 +14316,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>323</v>
       </c>
@@ -14335,7 +14337,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>386</v>
       </c>
@@ -14356,7 +14358,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>350</v>
       </c>
@@ -14377,7 +14379,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>334</v>
       </c>
@@ -14398,7 +14400,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>349</v>
       </c>
@@ -14419,7 +14421,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>342</v>
       </c>
@@ -14440,7 +14442,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>389</v>
       </c>
@@ -14461,7 +14463,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>338</v>
       </c>
@@ -14482,7 +14484,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>314</v>
       </c>
@@ -14503,7 +14505,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>327</v>
       </c>
@@ -14524,7 +14526,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>337</v>
       </c>
@@ -14545,7 +14547,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>401</v>
       </c>
@@ -14566,7 +14568,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>370</v>
       </c>
@@ -14587,7 +14589,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>391</v>
       </c>
@@ -14608,7 +14610,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>361</v>
       </c>
@@ -14629,7 +14631,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>316</v>
       </c>
@@ -14650,7 +14652,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>315</v>
       </c>
@@ -14671,7 +14673,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>302</v>
       </c>
@@ -14692,7 +14694,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>340</v>
       </c>
@@ -14713,7 +14715,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>311</v>
       </c>
@@ -14737,7 +14739,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>309</v>
       </c>
@@ -14761,7 +14763,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>358</v>
       </c>
@@ -14785,7 +14787,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>365</v>
       </c>
@@ -14809,7 +14811,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>343</v>
       </c>
@@ -14833,7 +14835,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>313</v>
       </c>
@@ -14854,7 +14856,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>362</v>
       </c>
@@ -14875,7 +14877,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>347</v>
       </c>
@@ -14896,7 +14898,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>333</v>
       </c>
@@ -14917,7 +14919,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>321</v>
       </c>
@@ -14935,7 +14937,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>374</v>
       </c>
@@ -14956,7 +14958,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E72" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">65.40.202.184    </v>
@@ -14971,7 +14973,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E73" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">65.82.217.170    </v>
@@ -14986,7 +14988,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E74" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">66.171.81.136    </v>
@@ -15001,7 +15003,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E75" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">66.186.170.98    </v>
@@ -15016,7 +15018,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E76" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">66.207.180.253   </v>
@@ -15031,7 +15033,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E77" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">66.43.97.173     </v>
@@ -15046,7 +15048,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E78" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15061,7 +15063,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E79" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15076,7 +15078,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">68.28.13.76      </v>
@@ -15088,7 +15090,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E81" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">69.161.99.169    </v>
@@ -15100,7 +15102,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E82" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">69.4.180.23      </v>
@@ -15112,7 +15114,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E83" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">69.4.184.205     </v>
@@ -15124,7 +15126,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E84" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">69.9.126.125     </v>
@@ -15136,7 +15138,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E85" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15148,7 +15150,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E86" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15160,7 +15162,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E87" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">71.80.14.130     </v>
@@ -15172,7 +15174,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E88" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15184,7 +15186,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E89" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">72.48.135.2      </v>
@@ -15196,7 +15198,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E90" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">74.119.112.18    </v>
@@ -15208,7 +15210,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E91" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15220,7 +15222,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E92" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">74.213.59.252    </v>
@@ -15232,7 +15234,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E93" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">74.3.28.8        </v>
@@ -15244,7 +15246,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="94" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E94" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">75.62.3.145      </v>
@@ -15256,7 +15258,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E95" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15268,7 +15270,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E96" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15280,7 +15282,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15292,7 +15294,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">96.71.202.43     </v>
@@ -15304,7 +15306,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15316,7 +15318,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">97.77.252.59     </v>
@@ -15328,7 +15330,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">97.77.252.67     </v>
@@ -15340,7 +15342,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E102" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">99.122.132.38    </v>
@@ -15352,7 +15354,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E103" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">99.20.16.21      </v>
@@ -15364,7 +15366,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E104" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -15376,7 +15378,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E105" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">99.92.202.177    </v>
@@ -15388,1057 +15390,1057 @@
         <v>509</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J106" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J107" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J108" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J109" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J110" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J111" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J112" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J113" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J114" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J115" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J116" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J117" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J118" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J119" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J120" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J121" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J122" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J123" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J124" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J125" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J126" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J127" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J128" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J129" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J130" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J131" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J132" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J133" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J134" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J135" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J136" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J137" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J138" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J139" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J140" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J141" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J142" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J143" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J144" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J145" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J146" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J147" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J148" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J149" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J150" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J151" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J152" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J153" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J154" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J155" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J156" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J157" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J158" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J159" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J160" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J161" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J162" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J163" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J164" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J165" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J166" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J167" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J168" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J169" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J170" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J171" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J172" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J173" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J174" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J175" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J176" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J177" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J178" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J179" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J180" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J181" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J182" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J183" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J184" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J185" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J186" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J187" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J188" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J189" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J190" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J191" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J192" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J193" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J194" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J195" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J196" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J197" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J198" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J199" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J200" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J201" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J202" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J203" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J204" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J205" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J206" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J207" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J208" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J209" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J210" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J211" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J212" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J213" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J214" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J215" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J216" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J217" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J218" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J219" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J220" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J221" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J222" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J223" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J224" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J225" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J226" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J227" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J228" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J229" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J230" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J231" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J232" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J233" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J234" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J235" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J236" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J237" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J238" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J239" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J240" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J241" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J242" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J243" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J244" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J245" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J246" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J247" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J248" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J249" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J250" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J251" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J252" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J253" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J254" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J255" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J256" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J257" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J258" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J260" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J261" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J262" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J263" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J264" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J265" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J266" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J267" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J268" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J269" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J270" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J271" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J272" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J273" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J274" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J275" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J276" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J277" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J278" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J279" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J280" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J281" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J282" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J283" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J284" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J285" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J286" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J287" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J288" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J289" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="290" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J290" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="291" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J291" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="292" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J292" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="293" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J293" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="294" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J294" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="295" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J295" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="296" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J296" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="297" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J297" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="298" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J298" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="299" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J299" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="300" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J300" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="301" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J301" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="302" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J302" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="303" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J303" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="304" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J304" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="305" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J305" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="306" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J306" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="307" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J307" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="308" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J308" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="309" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J309" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="310" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J310" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="311" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J311" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="312" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J312" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="313" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J313" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="314" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J314" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="315" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J315" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="316" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J316" t="s">
         <v>720</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\VPN-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B536DB-7D1E-4059-B054-403F2A0E900F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FA4190-8ECC-4AB5-A600-4515695EA287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D9C58BBF-2D2B-4D89-9E23-2B48DA360711}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{D9C58BBF-2D2B-4D89-9E23-2B48DA360711}"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform Data" sheetId="2" r:id="rId1"/>
